--- a/data/trans_orig/P1805_2016_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1805_2016_2023-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>26111</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17318</v>
+        <v>16650</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39159</v>
+        <v>37569</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02314787571426366</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01535316661685517</v>
+        <v>0.01476067400972375</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03471587980211047</v>
+        <v>0.0333058763380572</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>52</v>
@@ -763,19 +763,19 @@
         <v>59139</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>44984</v>
+        <v>44231</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>77279</v>
+        <v>75189</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04695210729003907</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03571404115974512</v>
+        <v>0.0351158905724854</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06135396543238891</v>
+        <v>0.05969485882913159</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>77</v>
@@ -784,19 +784,19 @@
         <v>85250</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>67885</v>
+        <v>67372</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>105662</v>
+        <v>106833</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03570584341598499</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02843300958893389</v>
+        <v>0.0282181315345497</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04425539688809359</v>
+        <v>0.04474589960940467</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>1101886</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1088838</v>
+        <v>1090428</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1110679</v>
+        <v>1111347</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9768521242857363</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.96528412019789</v>
+        <v>0.9666941236619429</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9846468333831461</v>
+        <v>0.9852393259902762</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1136</v>
@@ -834,19 +834,19 @@
         <v>1200422</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1182282</v>
+        <v>1184372</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1214577</v>
+        <v>1215330</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9530478927099609</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.938646034567611</v>
+        <v>0.9403051411708684</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9642859588402549</v>
+        <v>0.9648841094275146</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2177</v>
@@ -855,19 +855,19 @@
         <v>2302308</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2281896</v>
+        <v>2280725</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2319673</v>
+        <v>2320186</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.964294156584015</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9557446031119065</v>
+        <v>0.9552541003905951</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9715669904110661</v>
+        <v>0.9717818684654502</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>13141</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7085</v>
+        <v>7019</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22498</v>
+        <v>21274</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01445966534484501</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007795249714275162</v>
+        <v>0.007722688137984986</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02475470591322745</v>
+        <v>0.02340783688344083</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -980,19 +980,19 @@
         <v>36972</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25104</v>
+        <v>25834</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49218</v>
+        <v>53631</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03673403679726313</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0249420610666846</v>
+        <v>0.02566763783799827</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0489017684413013</v>
+        <v>0.05328554219479023</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>47</v>
@@ -1001,19 +1001,19 @@
         <v>50113</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38284</v>
+        <v>37086</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>67559</v>
+        <v>65839</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02616467434136093</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01998877146312573</v>
+        <v>0.0193629955604128</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03527334664934249</v>
+        <v>0.03437548464963943</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>895684</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>886327</v>
+        <v>887551</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>901740</v>
+        <v>901806</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.985540334655155</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9752452940867727</v>
+        <v>0.9765921631165592</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9922047502857249</v>
+        <v>0.9922773118620151</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>917</v>
@@ -1051,19 +1051,19 @@
         <v>969503</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>957257</v>
+        <v>952844</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>981371</v>
+        <v>980641</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9632659632027368</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9510982315586987</v>
+        <v>0.9467144578052097</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9750579389333152</v>
+        <v>0.9743323621620017</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1785</v>
@@ -1072,19 +1072,19 @@
         <v>1865187</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1847741</v>
+        <v>1849461</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1877016</v>
+        <v>1878214</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9738353256586391</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9647266533506575</v>
+        <v>0.9656245153503605</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9800112285368742</v>
+        <v>0.9806370044395871</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>17356</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10834</v>
+        <v>9962</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27358</v>
+        <v>27043</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02106891396685941</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01315164838481112</v>
+        <v>0.01209365589654403</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03321105864411319</v>
+        <v>0.03282891421935236</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -1197,19 +1197,19 @@
         <v>19572</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12248</v>
+        <v>11410</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30344</v>
+        <v>30609</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02538311168283269</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01588487902635747</v>
+        <v>0.01479811353267951</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03935390008932586</v>
+        <v>0.039697649239937</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -1218,19 +1218,19 @@
         <v>36928</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25109</v>
+        <v>25999</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50569</v>
+        <v>50222</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02315473171453682</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01574401348655978</v>
+        <v>0.01630224641260829</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03170825906075874</v>
+        <v>0.03149093614003662</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>806403</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>796401</v>
+        <v>796716</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>812925</v>
+        <v>813797</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9789310860331406</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9667889413558869</v>
+        <v>0.9671710857806477</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9868483516151889</v>
+        <v>0.987906344103456</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>711</v>
@@ -1268,19 +1268,19 @@
         <v>751487</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>740715</v>
+        <v>740450</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>758811</v>
+        <v>759649</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9746168883171673</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9606460999106742</v>
+        <v>0.960302350760063</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9841151209736425</v>
+        <v>0.9852018864673203</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1481</v>
@@ -1289,19 +1289,19 @@
         <v>1557890</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1544249</v>
+        <v>1544596</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1569709</v>
+        <v>1568819</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9768452682854631</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9682917409392412</v>
+        <v>0.9685090638599634</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9842559865134402</v>
+        <v>0.9836977535873918</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>4455</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1028</v>
+        <v>1527</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11617</v>
+        <v>12611</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008792752384102544</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002028648608188571</v>
+        <v>0.003013569235784205</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02292723356549936</v>
+        <v>0.02488904490448562</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1414,19 +1414,19 @@
         <v>13639</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7616</v>
+        <v>7311</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22988</v>
+        <v>23194</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02785269975222634</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01555292126287792</v>
+        <v>0.01492950199965399</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04694259953200138</v>
+        <v>0.04736355142669117</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -1435,19 +1435,19 @@
         <v>18095</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11123</v>
+        <v>10884</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28131</v>
+        <v>29105</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01816009888641317</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01116320235873728</v>
+        <v>0.0109232188061883</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.028232780416244</v>
+        <v>0.02921059644685569</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>502246</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>495084</v>
+        <v>494090</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>505673</v>
+        <v>505174</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9912072476158974</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9770727664345006</v>
+        <v>0.9751109550955155</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9979713513918115</v>
+        <v>0.9969864307642158</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>442</v>
@@ -1485,19 +1485,19 @@
         <v>476059</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>466710</v>
+        <v>466504</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>482082</v>
+        <v>482387</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9721473002477736</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9530574004679986</v>
+        <v>0.9526364485733088</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9844470787371221</v>
+        <v>0.985070498000346</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>909</v>
@@ -1506,19 +1506,19 @@
         <v>978303</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>968267</v>
+        <v>967293</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>985275</v>
+        <v>985514</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9818399011135869</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9717672195837561</v>
+        <v>0.9707894035531442</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9888367976412628</v>
+        <v>0.9890767811938117</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>61063</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>47445</v>
+        <v>46835</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>76935</v>
+        <v>78448</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01813422443939747</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01409013361535964</v>
+        <v>0.01390875094005984</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02284775167569063</v>
+        <v>0.02329699111161847</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>116</v>
@@ -1631,19 +1631,19 @@
         <v>129322</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>106600</v>
+        <v>108413</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>153755</v>
+        <v>154954</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03666850448869889</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03022571042525011</v>
+        <v>0.03073987740332499</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04359633080627835</v>
+        <v>0.04393614161094572</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>175</v>
@@ -1652,19 +1652,19 @@
         <v>190385</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>162104</v>
+        <v>161877</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>220476</v>
+        <v>218620</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02761578083768275</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0235135024292892</v>
+        <v>0.02348054139239441</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03198048166747145</v>
+        <v>0.03171135604866229</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3306219</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3290347</v>
+        <v>3288834</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3319837</v>
+        <v>3320447</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9818657755606025</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9771522483243094</v>
+        <v>0.9767030088883816</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9859098663846404</v>
+        <v>0.9860912490599402</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3206</v>
@@ -1702,19 +1702,19 @@
         <v>3397470</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3373037</v>
+        <v>3371838</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3420192</v>
+        <v>3418379</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9633314955113012</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9564036691937216</v>
+        <v>0.9560638583890542</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9697742895747498</v>
+        <v>0.9692601225966748</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6352</v>
@@ -1723,19 +1723,19 @@
         <v>6703690</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6673599</v>
+        <v>6675455</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6731971</v>
+        <v>6732198</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9723842191623172</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9680195183325284</v>
+        <v>0.9682886439513378</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9764864975707107</v>
+        <v>0.9765194586076058</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>32417</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20959</v>
+        <v>21743</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46395</v>
+        <v>47886</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06499890775569084</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04202350139105954</v>
+        <v>0.04359655466840862</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09302522666000443</v>
+        <v>0.09601316025611162</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -2088,19 +2088,19 @@
         <v>34775</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25934</v>
+        <v>26198</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45093</v>
+        <v>46301</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05576684303599475</v>
+        <v>0.05576684303599474</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04158870112294646</v>
+        <v>0.04201209905325545</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07231362932775977</v>
+        <v>0.07425037431035567</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>76</v>
@@ -2109,19 +2109,19 @@
         <v>67193</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>52094</v>
+        <v>52457</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>84212</v>
+        <v>83525</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05986941224073702</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04641663954149967</v>
+        <v>0.0467395405257216</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07503418639531262</v>
+        <v>0.07442142420598802</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>466322</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>452344</v>
+        <v>450853</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>477780</v>
+        <v>476996</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9350010922443093</v>
+        <v>0.9350010922443092</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9069747733399958</v>
+        <v>0.9039868397438884</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9579764986089405</v>
+        <v>0.9564034453315914</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>812</v>
@@ -2159,19 +2159,19 @@
         <v>588805</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>578487</v>
+        <v>577279</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>597646</v>
+        <v>597382</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9442331569640051</v>
+        <v>0.944233156964005</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9276863706722405</v>
+        <v>0.9257496256896445</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9584112988770537</v>
+        <v>0.9579879009467448</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1240</v>
@@ -2180,19 +2180,19 @@
         <v>1055127</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1038108</v>
+        <v>1038795</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1070226</v>
+        <v>1069863</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9401305877592631</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9249658136046873</v>
+        <v>0.9255785757940111</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9535833604584996</v>
+        <v>0.9532604594742774</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>24153</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13759</v>
+        <v>14759</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40251</v>
+        <v>40579</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02515617728294909</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01433012527674974</v>
+        <v>0.01537133514615417</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04192185794477219</v>
+        <v>0.04226373810776307</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -2305,19 +2305,19 @@
         <v>40432</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29827</v>
+        <v>30126</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53736</v>
+        <v>53496</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.03623393408826787</v>
+        <v>0.03623393408826788</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02673074264702479</v>
+        <v>0.02699828541676101</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04815664647537701</v>
+        <v>0.04794235094705585</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>73</v>
@@ -2326,19 +2326,19 @@
         <v>64585</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49067</v>
+        <v>50748</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>83802</v>
+        <v>85740</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03111050807729139</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02363554437220395</v>
+        <v>0.02444521917848355</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04036750855005653</v>
+        <v>0.04130079560471663</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>935984</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>919886</v>
+        <v>919558</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>946378</v>
+        <v>945378</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9748438227170509</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9580781420552278</v>
+        <v>0.9577362618922372</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9856698747232503</v>
+        <v>0.9846286648538458</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1551</v>
@@ -2376,19 +2376,19 @@
         <v>1075417</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1062113</v>
+        <v>1062353</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1086022</v>
+        <v>1085723</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9637660659117322</v>
+        <v>0.963766065911732</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9518433535246232</v>
+        <v>0.9520576490529442</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9732692573529752</v>
+        <v>0.9730017145832389</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2444</v>
@@ -2397,19 +2397,19 @@
         <v>2011401</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1992184</v>
+        <v>1990246</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2026919</v>
+        <v>2025238</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9688894919227087</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9596324914499434</v>
+        <v>0.9586992043952833</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9763644556277962</v>
+        <v>0.9755547808215165</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>17594</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10864</v>
+        <v>10544</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27691</v>
+        <v>27016</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01681241410946467</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01038108926907158</v>
+        <v>0.01007574828554095</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02646124123281459</v>
+        <v>0.02581643770443269</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -2522,19 +2522,19 @@
         <v>44152</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32192</v>
+        <v>32619</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60334</v>
+        <v>61832</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04214460825102944</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03072823689762294</v>
+        <v>0.03113574363672596</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05759040679161156</v>
+        <v>0.05902040962725621</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -2543,19 +2543,19 @@
         <v>61746</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46731</v>
+        <v>47256</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>79774</v>
+        <v>79504</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02948554159093934</v>
+        <v>0.02948554159093935</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02231541411067209</v>
+        <v>0.02256586727771573</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03809433549862655</v>
+        <v>0.03796554605316498</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>1028885</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1018788</v>
+        <v>1019463</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1035615</v>
+        <v>1035935</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9831875858905355</v>
+        <v>0.9831875858905353</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9735387587671855</v>
+        <v>0.9741835622955671</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9896189107309284</v>
+        <v>0.9899242517144591</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1465</v>
@@ -2593,19 +2593,19 @@
         <v>1003490</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>987308</v>
+        <v>985810</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1015450</v>
+        <v>1015023</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9578553917489705</v>
+        <v>0.9578553917489706</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9424095932083884</v>
+        <v>0.940979590372744</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9692717631023769</v>
+        <v>0.9688642563632741</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2476</v>
@@ -2614,19 +2614,19 @@
         <v>2032375</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2014347</v>
+        <v>2014617</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2047390</v>
+        <v>2046865</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9705144584090606</v>
+        <v>0.9705144584090609</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9619056645013733</v>
+        <v>0.9620344539468346</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9776845858893278</v>
+        <v>0.9774341327222842</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>35240</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23549</v>
+        <v>23492</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55363</v>
+        <v>50377</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03610947698597938</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02413025605606619</v>
+        <v>0.02407100871361442</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05672803175890249</v>
+        <v>0.05161938992344624</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -2739,19 +2739,19 @@
         <v>34196</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25173</v>
+        <v>26066</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44078</v>
+        <v>45297</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.03763431189656926</v>
+        <v>0.03763431189656925</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02770349277205843</v>
+        <v>0.02868721270785602</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04851007829423741</v>
+        <v>0.04985113727027899</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>79</v>
@@ -2760,19 +2760,19 @@
         <v>69436</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>53351</v>
+        <v>52856</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>89891</v>
+        <v>86813</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.036844672941139</v>
+        <v>0.03684467294113899</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02830925954609667</v>
+        <v>0.02804665508198652</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04769862573125491</v>
+        <v>0.04606529381366671</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>940689</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>920566</v>
+        <v>925552</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>952380</v>
+        <v>952437</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9638905230140207</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9432719682410978</v>
+        <v>0.9483806100765538</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9758697439439337</v>
+        <v>0.9759289912863857</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1271</v>
@@ -2810,19 +2810,19 @@
         <v>874446</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>864564</v>
+        <v>863345</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>883469</v>
+        <v>882576</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9623656881034309</v>
+        <v>0.9623656881034307</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9514899217057626</v>
+        <v>0.9501488627297208</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9722965072279416</v>
+        <v>0.971312787292144</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2189</v>
@@ -2831,19 +2831,19 @@
         <v>1815135</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1794680</v>
+        <v>1797758</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1831220</v>
+        <v>1831715</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9631553270588611</v>
+        <v>0.9631553270588609</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9523013742687452</v>
+        <v>0.9539347061863331</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9716907404539034</v>
+        <v>0.9719533449180136</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>109405</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>85875</v>
+        <v>86670</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>136361</v>
+        <v>137424</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03142662357708333</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02466762829924599</v>
+        <v>0.0248960141726519</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03916986322115011</v>
+        <v>0.03947512555397698</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>206</v>
@@ -2956,19 +2956,19 @@
         <v>153555</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>131532</v>
+        <v>131528</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>175694</v>
+        <v>175838</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04154956483522735</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03559032006828487</v>
+        <v>0.03558940793285121</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0475399941634365</v>
+        <v>0.0475789287415696</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>297</v>
@@ -2977,19 +2977,19 @@
         <v>262960</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>232456</v>
+        <v>230483</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>300853</v>
+        <v>296090</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03663931694485039</v>
+        <v>0.0366393169448504</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03238900724620963</v>
+        <v>0.03211407481677925</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0419190974859419</v>
+        <v>0.04125534326178857</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3371879</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3344923</v>
+        <v>3343860</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3395409</v>
+        <v>3394614</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9685733764229165</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.96083013677885</v>
+        <v>0.960524874446023</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9753323717007539</v>
+        <v>0.975103985827348</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5099</v>
@@ -3027,19 +3027,19 @@
         <v>3542158</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3520019</v>
+        <v>3519875</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3564181</v>
+        <v>3564185</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9584504351647727</v>
+        <v>0.9584504351647728</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9524600058365634</v>
+        <v>0.9524210712584308</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.964409679931715</v>
+        <v>0.9644105920671491</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8349</v>
@@ -3048,19 +3048,19 @@
         <v>6914038</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6876145</v>
+        <v>6880908</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6944542</v>
+        <v>6946515</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9633606830551494</v>
+        <v>0.9633606830551495</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.958080902514058</v>
+        <v>0.9587446567382115</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9676109927537903</v>
+        <v>0.9678859251832208</v>
       </c>
     </row>
     <row r="18">
